--- a/Base/Teams/Titans/Distributions.xlsx
+++ b/Base/Teams/Titans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.099915758306585, 1.3277971464222231, -0.3238068539468664, 2.208569770434363)</t>
-  </si>
-  <si>
-    <t>NIG(0.8458537541140791, 0.5151390817707455, 6.582991366959824, 5.323555809471763)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0010551505717493, 1.2450985395215244, 0.5873210013071977, 3.060889971281507)</t>
-  </si>
-  <si>
-    <t>NCT(2.1965464046294434, 2.094265274122778, -0.012291248727180962, 3.4819613792517083)</t>
+    <t>NCT(2.118473494661721, 1.281438240921506, -0.2153791949344146, 2.204856187604496)</t>
+  </si>
+  <si>
+    <t>NIG(0.8757519013663837, 0.5269513092734076, 6.580277629810109, 5.3201469237803085)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9494824841749, 1.2304715573297296, 0.6480674894796262, 3.0577799086488846)</t>
+  </si>
+  <si>
+    <t>NCT(2.1350229007052595, 2.13727359457783, -0.011531013113138856, 3.3343369180954863)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Titans/Distributions.xlsx
+++ b/Base/Teams/Titans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.118473494661721, 1.281438240921506, -0.2153791949344146, 2.204856187604496)</t>
-  </si>
-  <si>
-    <t>NIG(0.8757519013663837, 0.5269513092734076, 6.580277629810109, 5.3201469237803085)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9494824841749, 1.2304715573297296, 0.6480674894796262, 3.0577799086488846)</t>
-  </si>
-  <si>
-    <t>NCT(2.1350229007052595, 2.13727359457783, -0.011531013113138856, 3.3343369180954863)</t>
+    <t>NCT(2.260085008522421, 1.4211906422018523, -0.5172128520750621, 2.214272917878322)</t>
+  </si>
+  <si>
+    <t>NCT(3.2260123264523193, 1.1015571026262847, 3.4806849659485977, 4.5238235005647365)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9198199206443796, 1.2441341260418963, 0.6722253377479606, 3.11334946646099)</t>
+  </si>
+  <si>
+    <t>JSU(-1.223026086395933, 1.0028476383675553, 3.0610907124776148, 3.3015988855807317)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Titans/Distributions.xlsx
+++ b/Base/Teams/Titans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.260085008522421, 1.4211906422018523, -0.5172128520750621, 2.214272917878322)</t>
-  </si>
-  <si>
-    <t>NCT(3.2260123264523193, 1.1015571026262847, 3.4806849659485977, 4.5238235005647365)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9198199206443796, 1.2441341260418963, 0.6722253377479606, 3.11334946646099)</t>
-  </si>
-  <si>
-    <t>JSU(-1.223026086395933, 1.0028476383675553, 3.0610907124776148, 3.3015988855807317)</t>
+    <t>NCT(2.2393200005478144, 1.4252014926512548, -0.6163009051903825, 2.247312417022685)</t>
+  </si>
+  <si>
+    <t>NCT(3.2099891108112537, 1.24663216574749, 2.6613372373170177, 4.506507713835729)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9929317501482251, 1.2475613393966303, 0.4685680304698515, 3.054054357077623)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2321670325439378, 1.0348201933930898, 2.927076423521182, 3.5562937944805615)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Titans/Distributions.xlsx
+++ b/Base/Teams/Titans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.2393200005478144, 1.4252014926512548, -0.6163009051903825, 2.247312417022685)</t>
-  </si>
-  <si>
-    <t>NCT(3.2099891108112537, 1.24663216574749, 2.6613372373170177, 4.506507713835729)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9929317501482251, 1.2475613393966303, 0.4685680304698515, 3.054054357077623)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2321670325439378, 1.0348201933930898, 2.927076423521182, 3.5562937944805615)</t>
+    <t>NCT(2.3051640569433545, 1.4569097091819994, -0.7333289336099142, 2.287941778560582)</t>
+  </si>
+  <si>
+    <t>MIE(6.036604386717191, 5.56327901270189, -13.017193027801557, 21.574748812359026)</t>
+  </si>
+  <si>
+    <t>JSU(-1.004280973142711, 1.2805079353617015, 0.367783626029089, 3.2012855296433687)</t>
+  </si>
+  <si>
+    <t>JSU(-1.137840704463742, 1.00211469319482, 3.2642994003480625, 3.6178860541065267)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Titans/Distributions.xlsx
+++ b/Base/Teams/Titans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.3051640569433545, 1.4569097091819994, -0.7333289336099142, 2.287941778560582)</t>
-  </si>
-  <si>
-    <t>MIE(6.036604386717191, 5.56327901270189, -13.017193027801557, 21.574748812359026)</t>
-  </si>
-  <si>
-    <t>JSU(-1.004280973142711, 1.2805079353617015, 0.367783626029089, 3.2012855296433687)</t>
-  </si>
-  <si>
-    <t>JSU(-1.137840704463742, 1.00211469319482, 3.2642994003480625, 3.6178860541065267)</t>
+    <t>NCT(2.3375586344204518, 1.4941583295314556, -0.8257965719468602, 2.302340791781454)</t>
+  </si>
+  <si>
+    <t>MIE(7.536251712360564, 5.5803136488842915, -14.837131736427386, 22.205954556824096)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0195015450698808, 1.2851424364099886, 0.2724282462206998, 3.2260262461841496)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1522416378847942, 1.0014978470275973, 3.2787213957246646, 3.573841903868784)</t>
   </si>
 </sst>
 </file>
